--- a/Dossier/emploi du temps paul berthelot.xlsx
+++ b/Dossier/emploi du temps paul berthelot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\Portfolio Paul Berthelot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA8AF6E-3E8A-4431-BBCE-EBD0B9357378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B53659-7650-40DC-8221-B0FA9EB3FCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Heure</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t xml:space="preserve">Test de fonctionnement </t>
+  </si>
+  <si>
+    <t>Document Base de donnée</t>
+  </si>
+  <si>
+    <t>Rendre le prototype</t>
+  </si>
+  <si>
+    <t>Pour février essayer Js</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +616,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -674,8 +683,12 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -690,8 +703,12 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -706,8 +723,12 @@
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dossier/emploi du temps paul berthelot.xlsx
+++ b/Dossier/emploi du temps paul berthelot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B53659-7650-40DC-8221-B0FA9EB3FCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374968F7-AF9C-463E-A035-833C5B646A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,5 +732,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dossier/emploi du temps paul berthelot.xlsx
+++ b/Dossier/emploi du temps paul berthelot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374968F7-AF9C-463E-A035-833C5B646A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EEB380-7A64-46DF-9E99-AC48ACE09182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>Heure</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Pour février essayer Js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Vendredi 14 Février 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Jeudi 13 Février 2020</t>
+  </si>
+  <si>
+    <t>Revoir les objectifs</t>
+  </si>
+  <si>
+    <t>Etablir une section avis dans la page contact</t>
+  </si>
+  <si>
+    <t>Commencer les modifications du site</t>
+  </si>
+  <si>
+    <t>Refaire un document de base de données</t>
   </si>
 </sst>
 </file>
@@ -495,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC17C5-0787-4D4B-BFFA-7BC133D746E8}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +748,106 @@
         <v>19</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dossier/emploi du temps paul berthelot.xlsx
+++ b/Dossier/emploi du temps paul berthelot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EEB380-7A64-46DF-9E99-AC48ACE09182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9729C44-EA92-46AD-8AE3-FC1E98B80456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Heure</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Refaire un document de base de données</t>
+  </si>
+  <si>
+    <t>Icon web</t>
+  </si>
+  <si>
+    <t>Mise en page amélioré</t>
+  </si>
+  <si>
+    <t>Modifier maquette</t>
+  </si>
+  <si>
+    <t>Recommencer le MCD</t>
+  </si>
+  <si>
+    <t>En cours</t>
   </si>
 </sst>
 </file>
@@ -515,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC17C5-0787-4D4B-BFFA-7BC133D746E8}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +804,9 @@
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>19</v>
       </c>
@@ -807,7 +824,9 @@
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>19</v>
       </c>
@@ -825,7 +844,9 @@
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>19</v>
       </c>
@@ -843,9 +864,11 @@
       <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Dossier/emploi du temps paul berthelot.xlsx
+++ b/Dossier/emploi du temps paul berthelot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9729C44-EA92-46AD-8AE3-FC1E98B80456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C342CA-C6D9-457E-9537-BEABC50AC778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>Heure</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>En cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Lundi 17 Février 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Mardi 18 Février 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Mercredi 19 Février 2020</t>
+  </si>
+  <si>
+    <t>Ajout site</t>
+  </si>
+  <si>
+    <t>PHP</t>
   </si>
 </sst>
 </file>
@@ -528,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC17C5-0787-4D4B-BFFA-7BC133D746E8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,6 +886,174 @@
         <v>39</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dossier/emploi du temps paul berthelot.xlsx
+++ b/Dossier/emploi du temps paul berthelot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C342CA-C6D9-457E-9537-BEABC50AC778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB594E-4B18-4FBF-AF27-4E7748D404D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>Heure</t>
   </si>
@@ -162,10 +162,22 @@
     <t xml:space="preserve">                    Mercredi 19 Février 2020</t>
   </si>
   <si>
-    <t>Ajout site</t>
-  </si>
-  <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP </t>
+  </si>
+  <si>
+    <t>Continuer MCD</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>En Cours</t>
+  </si>
+  <si>
+    <t>Vérification des données</t>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,19 +931,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -939,16 +951,16 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>19</v>
@@ -959,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>19</v>
@@ -968,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -979,16 +991,16 @@
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>19</v>

--- a/Dossier/emploi du temps paul berthelot.xlsx
+++ b/Dossier/emploi du temps paul berthelot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\OneDrive\Bureau\paulberthelot-portfolio\Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB594E-4B18-4FBF-AF27-4E7748D404D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D28F0-D0D8-44D5-9D51-C876E2C16AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79DFD271-2844-4F9F-88D1-88A87E116DA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
   <si>
     <t>Heure</t>
   </si>
@@ -168,16 +168,13 @@
     <t xml:space="preserve">PHP </t>
   </si>
   <si>
-    <t>Continuer MCD</t>
-  </si>
-  <si>
     <t>MCD</t>
   </si>
   <si>
     <t>En Cours</t>
   </si>
   <si>
-    <t>Vérification des données</t>
+    <t>Terminé</t>
   </si>
 </sst>
 </file>
@@ -557,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC17C5-0787-4D4B-BFFA-7BC133D746E8}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,16 +931,16 @@
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -954,16 +951,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -974,13 +971,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>47</v>
@@ -991,16 +988,16 @@
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>19</v>
